--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4989CB-2777-9146-A6B6-F1954A043703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB5319-0DFF-4442-B4CB-777CE41F65F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTDATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -82,10 +82,43 @@
     <t>2580</t>
   </si>
   <si>
-    <t>IOS_INVALID_SIGN_IN_ERROR_MSG</t>
-  </si>
-  <si>
-    <t>A short, complete sentence that gives overview of the error.</t>
+    <t>CREATE_SECURE</t>
+  </si>
+  <si>
+    <t>Create a secure financial future</t>
+  </si>
+  <si>
+    <t>DON’T_HAVE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>Don't have an account?</t>
+  </si>
+  <si>
+    <t>CREATE_ONE_ON_OUR_WEBSITE</t>
+  </si>
+  <si>
+    <t>Create one on our website</t>
+  </si>
+  <si>
+    <t>Step1_of_4</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Step2_of_4</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>DETAILS_INCORRECT</t>
+  </si>
+  <si>
+    <t>Details incorrect</t>
+  </si>
+  <si>
+    <t>ERROR_MSG</t>
   </si>
 </sst>
 </file>
@@ -418,20 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -450,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,7 +491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -466,7 +499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -474,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -482,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -490,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -498,7 +531,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -506,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -514,16 +547,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A11:A12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB5319-0DFF-4442-B4CB-777CE41F65F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FB2EA-11F4-467C-8325-DBF6DEA69746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Step2_of_4</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>DETAILS_INCORRECT</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>ERROR_MSG</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -592,15 +592,15 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FB2EA-11F4-467C-8325-DBF6DEA69746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D267D-0866-4D64-97B1-F8E1F1EBDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -119,6 +119,60 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>ONE_DIGIT</t>
+  </si>
+  <si>
+    <t>TWO_DIGIT</t>
+  </si>
+  <si>
+    <t>THREE_DIGIT</t>
+  </si>
+  <si>
+    <t>FOUR_DIGIT</t>
+  </si>
+  <si>
+    <t>FIVE_DIGIT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_POPUP</t>
+  </si>
+  <si>
+    <t>SIX_DIGIT_INCORRECT</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>WEB_USERNAME</t>
+  </si>
+  <si>
+    <t>WEB_PASSWORD</t>
+  </si>
+  <si>
+    <t>karenaccount</t>
+  </si>
+  <si>
+    <t>Portfolio1</t>
+  </si>
+  <si>
+    <t>Step4_of_4</t>
   </si>
 </sst>
 </file>
@@ -451,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +582,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>123123</v>
+        <v>258036</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,6 +655,83 @@
       </c>
       <c r="B17" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D267D-0866-4D64-97B1-F8E1F1EBDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77D085-19A4-47AE-933B-9EF5B8019D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -173,6 +173,27 @@
   </si>
   <si>
     <t>Step4_of_4</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_STEP4</t>
+  </si>
+  <si>
+    <t>Sorry, your PIN does not match. Please try again.</t>
+  </si>
+  <si>
+    <t>Incorrect PIN</t>
+  </si>
+  <si>
+    <t>INCORRECT_PIN</t>
+  </si>
+  <si>
+    <t>INCORRECT_SIX_DIGIT</t>
+  </si>
+  <si>
+    <t>630852</t>
   </si>
 </sst>
 </file>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,6 +754,33 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A11:A12">

--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77D085-19A4-47AE-933B-9EF5B8019D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CF0D70-382A-487B-9234-235D452205A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>TESTDATA_KEY</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>630852</t>
+  </si>
+  <si>
+    <t>Step3_of_4</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,6 +788,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A11:A12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/src/test/resources/test-data/OneCSAndroid_TD.xlsx
+++ b/src/test/resources/test-data/OneCSAndroid_TD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CF0D70-382A-487B-9234-235D452205A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CACDA1-DF68-4452-A182-36313CFC6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
